--- a/src/test/resources/Properties/Excel/EXCEL.xlsx
+++ b/src/test/resources/Properties/Excel/EXCEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="6075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Masters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Select Doc Category</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Select Doc Type</t>
   </si>
   <si>
-    <t>Reports</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -46,6 +43,15 @@
   </si>
   <si>
     <t>Water System</t>
+  </si>
+  <si>
+    <t>Protocols</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Technology </t>
   </si>
 </sst>
 </file>
@@ -379,13 +385,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -395,22 +402,31 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"Reports,Protocols,SOP,STP"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"Water System,General Reports,Operational Cleaning"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>" Information Technology , Quality Assurance , Quality Control "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -432,18 +448,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Properties/Excel/EXCEL.xlsx
+++ b/src/test/resources/Properties/Excel/EXCEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="6075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Masters" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Credentials" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M18"/>
+  <oleSize ref="A1:O18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Properties/Excel/EXCEL.xlsx
+++ b/src/test/resources/Properties/Excel/EXCEL.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="3465"/>
   </bookViews>
   <sheets>
     <sheet name="Masters" sheetId="1" r:id="rId1"/>
-    <sheet name="Configuration" sheetId="2" r:id="rId2"/>
-    <sheet name="Credentials" sheetId="3" r:id="rId3"/>
+    <sheet name="Configurations" sheetId="2" r:id="rId2"/>
+    <sheet name="Configurations2" sheetId="4" r:id="rId3"/>
+    <sheet name="Credentials" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O18"/>
+  <oleSize ref="A1:L9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="47">
   <si>
     <t>Select Doc Category</t>
   </si>
   <si>
-    <t>Select Doc Type</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -42,29 +40,174 @@
     <t>321</t>
   </si>
   <si>
+    <t>Protocols</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Technology </t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>noofdigits</t>
+  </si>
+  <si>
+    <t>documenttype</t>
+  </si>
+  <si>
+    <t>doucmentnoconfig</t>
+  </si>
+  <si>
+    <t>versionNumber</t>
+  </si>
+  <si>
+    <t>doucmentnumber</t>
+  </si>
+  <si>
+    <t>department5</t>
+  </si>
+  <si>
+    <t>doucment5</t>
+  </si>
+  <si>
+    <t>reviewperiod</t>
+  </si>
+  <si>
+    <t>timePeriod</t>
+  </si>
+  <si>
+    <t>reviewExpiryAlertBefore</t>
+  </si>
+  <si>
+    <t>doucmenttype5</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Cleaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General 2 </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>documentid1</t>
+  </si>
+  <si>
+    <t>documentid2</t>
+  </si>
+  <si>
+    <t>documentid3</t>
+  </si>
+  <si>
+    <t>BlockOrLocation</t>
+  </si>
+  <si>
+    <t>Depatment</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Block-B</t>
+  </si>
+  <si>
+    <t>MetaFeild</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Document_Type</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SelectDoc Type</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water System</t>
+  </si>
+  <si>
     <t>Water System</t>
-  </si>
-  <si>
-    <t>Protocols</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Technology </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,13 +226,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,63 +546,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>"Reports,Protocols,SOP,STP"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="23" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"Reports,Protocols,SOP,STP"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 G2">
+      <formula1>" Information Technology , Quality Assurance , Quality Control "</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>"Water System,General Reports,Operational Cleaning"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>" Information Technology , Quality Assurance , Quality Control "</formula1>
+      <formula1>"Water System,General Reports,Operational Cleaning,General 2,Block-A,Block-B"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -435,31 +670,2543 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="6"/>
+      <c r="N43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="6"/>
+      <c r="N44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="6"/>
+      <c r="N45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K48">
+      <formula1>" Information Technology , Quality Assurance , Quality Control "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A49">
+      <formula1>"Information Technology,Quality Assurance,Quality Control"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 B1:B48">
+      <formula1>"Protocols,SOP,Reports"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C48">
+      <formula1>" Product Cleaning "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D48">
+      <formula1>" Validation , Annexure "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E48">
+      <formula1>" General 2 "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O48">
+      <formula1>"Days ,Months ,Years "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M48">
+      <formula1>" Product Cleaning , Validation , Annexure , General 2 "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q48">
+      <formula1>" Product Cleaning , Validation , Annexure ,  General 2 "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
